--- a/Data/JOLTS/Job_openings_SC.xlsx
+++ b/Data/JOLTS/Job_openings_SC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/meschef_clemson_edu/Documents/Econ_Trends/Econ-Trends/Data/JOLTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538E4395-BFAC-A342-BF59-9AB580755AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6067F4-CF70-B94A-84B2-7734459E45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="35">
   <si>
     <t>Job Openings and Labor Turnover Survey</t>
   </si>
@@ -101,7 +101,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>2000 to 2021</t>
+    <t>2000 to 2022</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -305,7 +305,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A1D36B-AD9B-1E41-9D1A-F39E39C7B9AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC4CF77-7B31-A544-9CA1-A008902A27F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -4336,7 +4336,21 @@
         <v>34</v>
       </c>
       <c r="D267" s="3">
-        <v>182</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268" s="3">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4372,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: February 17, 2022 (11:22:17 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 28, 2022 (06:39:11 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
